--- a/Olaf.xlsx
+++ b/Olaf.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Documents\Unreal Projects\SHU24.github.io\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A020184A-1FFF-411E-882D-20D6A0C90188}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C95238D-9D9E-423A-AC1F-E6A563F0F1FA}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="7980" activeTab="1" xr2:uid="{083B3B41-0FCD-42DB-B0FA-D70236D84D57}"/>
   </bookViews>
@@ -1066,15 +1066,84 @@
                   <c:y val="2.2080331404355075E-2"/>
                 </c:manualLayout>
               </c:layout>
-              <c:dLblPos val="r"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="1"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                    <a:spAutoFit/>
+                  </a:bodyPr>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:pPr>
+                      <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                        <a:solidFill>
+                          <a:schemeClr val="tx1"/>
+                        </a:solidFill>
+                        <a:latin typeface="+mn-lt"/>
+                        <a:ea typeface="+mn-ea"/>
+                        <a:cs typeface="+mn-cs"/>
+                      </a:defRPr>
+                    </a:pPr>
+                    <a:fld id="{F644B563-4955-4581-8905-EB3696B456E4}" type="VALUE">
+                      <a:rPr lang="en-US">
+                        <a:solidFill>
+                          <a:srgbClr val="FF0000"/>
+                        </a:solidFill>
+                      </a:rPr>
+                      <a:pPr>
+                        <a:defRPr>
+                          <a:solidFill>
+                            <a:schemeClr val="tx1"/>
+                          </a:solidFill>
+                        </a:defRPr>
+                      </a:pPr>
+                      <a:t>[WAARDE]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="nl-NL"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:spPr>
+                <a:solidFill>
+                  <a:srgbClr val="FFFF00"/>
+                </a:solidFill>
+                <a:ln>
+                  <a:solidFill>
+                    <a:srgbClr val="FF0000"/>
+                  </a:solidFill>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                  <a:spAutoFit/>
+                </a:bodyPr>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1"/>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="nl-NL"/>
+                </a:p>
+              </c:txPr>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:showDataLabelsRange val="0"/>
+                </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000029-1F70-48EE-AF3F-D6EFB8F0B8A1}"/>
                 </c:ext>
@@ -1407,6 +1476,1373 @@
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000035-1F70-48EE-AF3F-D6EFB8F0B8A1}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="t"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:dropLines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="35000"/>
+                  <a:lumOff val="65000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:dropLines>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="1195759616"/>
+        <c:axId val="1096045392"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="1195759616"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="nl-NL"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1096045392"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1096045392"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="9.6000000000000035E-4"/>
+          <c:min val="9.2500000000000037E-4"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:minorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="5000"/>
+                  <a:lumOff val="95000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:minorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="nl-NL"/>
+                  <a:t>Time</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="nl-NL"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="mm:ss.00" sourceLinked="0"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:sysClr>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="nl-NL"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1195759616"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="nl-NL"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="nl-NL"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="nl-NL"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Olaf 2 stint</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="nl-NL"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="4.4326745125087059E-2"/>
+          <c:y val="8.2143399628103325E-2"/>
+          <c:w val="0.92903170243132205"/>
+          <c:h val="0.82524115537491305"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:lineChart>
+        <c:grouping val="stacked"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Olaf</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:srgbClr val="FF0000"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:dLbl>
+              <c:idx val="3"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-1.8937877208040046E-2"/>
+                  <c:y val="3.0485898007384323E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{0000002A-DEDA-4A71-83F8-85488067FBC6}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="5"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-4.0736872555424242E-2"/>
+                  <c:y val="-2.4150284912305822E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000001-DEDA-4A71-83F8-85488067FBC6}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="7"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-1.8256658603434277E-2"/>
+                  <c:y val="3.2587289658141637E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000003-DEDA-4A71-83F8-85488067FBC6}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="8"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-2.9837374881732135E-2"/>
+                  <c:y val="-4.7265593070636214E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{0000002B-DEDA-4A71-83F8-85488067FBC6}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="10"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-1.8937877208040056E-2"/>
+                  <c:y val="2.8384506356627013E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000005-DEDA-4A71-83F8-85488067FBC6}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="12"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-1.8256658603434325E-2"/>
+                  <c:y val="3.0485898007384247E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000006-DEDA-4A71-83F8-85488067FBC6}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="14"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-8.038379534347927E-3"/>
+                  <c:y val="-7.4583684530481337E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{0000002C-DEDA-4A71-83F8-85488067FBC6}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="16"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-1.8256658603434277E-2"/>
+                  <c:y val="2.4181723055112389E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000009-DEDA-4A71-83F8-85488067FBC6}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="17"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-3.1199812090943649E-2"/>
+                  <c:y val="-2.6251676563063094E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{0000000A-DEDA-4A71-83F8-85488067FBC6}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="19"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-8.7195981389536839E-3"/>
+                  <c:y val="-5.7772551324422772E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{0000000B-DEDA-4A71-83F8-85488067FBC6}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="20"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-1.8256658603434325E-2"/>
+                  <c:y val="2.4181723055112309E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{0000000C-DEDA-4A71-83F8-85488067FBC6}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="22"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-2.4387626044886136E-2"/>
+                  <c:y val="2.8384506356627013E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{0000000D-DEDA-4A71-83F8-85488067FBC6}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="23"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-1.9619095812645787E-2"/>
+                  <c:y val="-4.93669847213936E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{0000002D-DEDA-4A71-83F8-85488067FBC6}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="24"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-2.915615627712638E-2"/>
+                  <c:y val="-3.8860026467607042E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{0000000E-DEDA-4A71-83F8-85488067FBC6}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="25"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-2.3706407440280328E-2"/>
+                  <c:y val="-2.6251676563063171E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{0000000F-DEDA-4A71-83F8-85488067FBC6}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="26"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-1.8937877208040032E-2"/>
+                  <c:y val="2.6283114705869776E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000010-DEDA-4A71-83F8-85488067FBC6}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="27"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-2.5068844649491842E-2"/>
+                  <c:y val="-4.7265593070636214E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{0000002E-DEDA-4A71-83F8-85488067FBC6}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="29"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-1.9619095812645787E-2"/>
+                  <c:y val="3.4688681308898947E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000011-DEDA-4A71-83F8-85488067FBC6}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="31"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-5.3135051159249012E-3"/>
+                  <c:y val="-6.1975334625937392E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000013-DEDA-4A71-83F8-85488067FBC6}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="32"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-1.9619095812645787E-2"/>
+                  <c:y val="2.6283114705869699E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000014-DEDA-4A71-83F8-85488067FBC6}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="33"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-1.4169346975799735E-2"/>
+                  <c:y val="5.990538111798669E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000015-DEDA-4A71-83F8-85488067FBC6}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="35"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-8.038379534347927E-3"/>
+                  <c:y val="-6.1975334625937469E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000017-DEDA-4A71-83F8-85488067FBC6}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="36"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-1.4169346975799735E-2"/>
+                  <c:y val="-3.6758634816849732E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000018-DEDA-4A71-83F8-85488067FBC6}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="37"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-1.8256658603434277E-2"/>
+                  <c:y val="4.7297031213442815E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000019-DEDA-4A71-83F8-85488067FBC6}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="39"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-1.9074120928961184E-3"/>
+                  <c:y val="-7.4583684530481267E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{0000001B-DEDA-4A71-83F8-85488067FBC6}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="40"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="2.1798995347383208E-3"/>
+                  <c:y val="-3.0454459864577718E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{0000002F-DEDA-4A71-83F8-85488067FBC6}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="41"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-1.8256658603434277E-2"/>
+                  <c:y val="3.2587289658141637E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{0000001C-DEDA-4A71-83F8-85488067FBC6}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="42"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-2.8474937672520625E-2"/>
+                  <c:y val="-5.3569768022908228E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000030-DEDA-4A71-83F8-85488067FBC6}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="44"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-1.8937877208040133E-2"/>
+                  <c:y val="3.0485898007384323E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{0000001E-DEDA-4A71-83F8-85488067FBC6}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="46"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-6.6759423251364141E-3"/>
+                  <c:y val="-3.4657243166092339E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{0000001F-DEDA-4A71-83F8-85488067FBC6}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="47"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-2.1662751626463157E-2"/>
+                  <c:y val="3.6790072959656257E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000031-DEDA-4A71-83F8-85488067FBC6}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="49"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-1.8256658603434374E-2"/>
+                  <c:y val="2.4181723055112389E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000021-DEDA-4A71-83F8-85488067FBC6}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="51"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-1.7575439998828518E-2"/>
+                  <c:y val="4.3094247911928119E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000022-DEDA-4A71-83F8-85488067FBC6}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="nl-NL"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="t"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:val>
+            <c:numRef>
+              <c:f>Blad1!$J$2:$J$54</c:f>
+              <c:numCache>
+                <c:formatCode>mm:ss.000</c:formatCode>
+                <c:ptCount val="53"/>
+                <c:pt idx="0">
+                  <c:v>2.5698495370370372E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.0219097222222222E-3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.0300347222222223E-3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>9.5361111111111102E-4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>9.7466435185185189E-4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>9.4781250000000009E-4</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>9.4880787037037036E-4</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>9.4564814814814804E-4</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9.4991898148148138E-4</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9.5370370370370379E-4</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>9.4125000000000003E-4</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>9.5513888888888894E-4</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>9.3891203703703704E-4</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>9.4792824074074072E-4</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>9.436342592592593E-4</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>9.4337962962962962E-4</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>9.3461805555555561E-4</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>9.4142361111111109E-4</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>9.4473379629629627E-4</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>9.4009259259259263E-4</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>9.3729166666666668E-4</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>9.4310185185185176E-4</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>9.3436342592592594E-4</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>9.3454861111111115E-4</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>9.3725694444444444E-4</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>9.4018518518518518E-4</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>9.3747685185185188E-4</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>9.4002314814814816E-4</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>9.4258101851851849E-4</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>9.3791666666666665E-4</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>9.4138888888888885E-4</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>9.3983796296296296E-4</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>9.3640046296296299E-4</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>9.3952546296296297E-4</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>9.4025462962962964E-4</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>9.3668981481481489E-4</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>9.3615740740740736E-4</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>9.3037037037037036E-4</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>9.5561342592592594E-4</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>9.3932870370370372E-4</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>9.3903935185185182E-4</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>9.3173611111111105E-4</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>9.3365740740740746E-4</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>9.4035879629629634E-4</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>9.3410879629629627E-4</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>9.4240740740740743E-4</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>9.4037037037037038E-4</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>9.3593749999999992E-4</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>9.3748842592592592E-4</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>9.3442129629629626E-4</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>9.3506944444444453E-4</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>9.3560185185185185E-4</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>9.3554398148148153E-4</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000029-DEDA-4A71-83F8-85488067FBC6}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1744,7 +3180,563 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -2303,6 +4295,49 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>399023</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>138114</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Grafiek 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{01C37F92-C554-4237-B812-848E7FC1F9CC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
@@ -2676,10 +4711,10 @@
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="1"/>
-      <sheetData sheetId="2"/>
-      <sheetData sheetId="3"/>
-      <sheetData sheetId="4"/>
+      <sheetData sheetId="1" refreshError="1"/>
+      <sheetData sheetId="2" refreshError="1"/>
+      <sheetData sheetId="3" refreshError="1"/>
+      <sheetData sheetId="4" refreshError="1"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -2984,7 +5019,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B71D3909-5556-4531-88A0-D88DB48944B6}">
   <dimension ref="A1:K68"/>
   <sheetViews>
-    <sheetView topLeftCell="A14" workbookViewId="0">
+    <sheetView topLeftCell="A29" workbookViewId="0">
       <selection activeCell="J2" sqref="J2:J54"/>
     </sheetView>
   </sheetViews>
@@ -4698,7 +6733,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0749FAA6-0DD3-4C90-9E14-7A55313E6506}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="W37" sqref="W37"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
@@ -4711,12 +6748,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6A530696-5BD7-4BF4-B861-085D3BC736A3}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="Q37" sqref="Q37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>